--- a/partial/sliding_window_results_window_6.xlsx
+++ b/partial/sliding_window_results_window_6.xlsx
@@ -468,13 +468,13 @@
         <v>29.55</v>
       </c>
       <c r="C2" t="n">
-        <v>29.84591448890856</v>
+        <v>29.46595573425293</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2959144889085614</v>
+        <v>-0.08404426574706747</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08756538474601512</v>
+        <v>0.007063438604963698</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.75</v>
       </c>
       <c r="C3" t="n">
-        <v>29.63832611849096</v>
+        <v>29.70925712585449</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1116738815090415</v>
+        <v>-0.04074287414550781</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01247105581129543</v>
+        <v>0.001659981793636689</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.84</v>
       </c>
       <c r="C4" t="n">
-        <v>30.53792944522699</v>
+        <v>29.85741233825684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6979294452269933</v>
+        <v>0.01741233825683253</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4871055105148586</v>
+        <v>0.0003031895235703536</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.81</v>
       </c>
       <c r="C5" t="n">
-        <v>30.40112432916776</v>
+        <v>29.88316917419434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5911243291677657</v>
+        <v>0.07316917419433366</v>
       </c>
       <c r="E5" t="n">
-        <v>0.349427972534041</v>
+        <v>0.005353728052280743</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.92</v>
       </c>
       <c r="C6" t="n">
-        <v>30.22519927145229</v>
+        <v>29.93117332458496</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3051992714522846</v>
+        <v>0.01117332458495923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09314659529500532</v>
+        <v>0.0001248431822808544</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.98</v>
       </c>
       <c r="C7" t="n">
-        <v>29.60926616618648</v>
+        <v>30.08595848083496</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3707338338135209</v>
+        <v>0.105958480834957</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1374435755340713</v>
+        <v>0.01122719966085194</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>30.04</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>29.89359573285066</v>
+        <v>30.22243309020996</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.146404267149336</v>
+        <v>0.1824330902099689</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02143420943953413</v>
+        <v>0.03328183240355865</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>30.21</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4881873502974</v>
+        <v>30.27715873718262</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7218126497026027</v>
+        <v>0.06715873718260923</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5210135012706922</v>
+        <v>0.004510295979962779</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.22</v>
       </c>
       <c r="C10" t="n">
-        <v>29.87883321989423</v>
+        <v>30.35295677185059</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3411667801057661</v>
+        <v>0.1329567718505871</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1163947718477361</v>
+        <v>0.01767750318092906</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.38</v>
       </c>
       <c r="C11" t="n">
-        <v>29.73555844411813</v>
+        <v>30.36369132995605</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6444415558818726</v>
+        <v>-0.01630867004394077</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4153049189474487</v>
+        <v>0.0002659727186021309</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.44</v>
       </c>
       <c r="C12" t="n">
-        <v>30.40475970552956</v>
+        <v>30.49990653991699</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03524029447044441</v>
+        <v>0.05990653991699446</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001241878354363635</v>
+        <v>0.003588793524826451</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.48</v>
       </c>
       <c r="C13" t="n">
-        <v>30.33028416551723</v>
+        <v>30.43221092224121</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1497158344827696</v>
+        <v>-0.04778907775879304</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02241483109487206</v>
+        <v>0.002283795953035968</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.69</v>
       </c>
       <c r="C14" t="n">
-        <v>30.55678553735556</v>
+        <v>30.43744468688965</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1332144626444389</v>
+        <v>-0.2525553131103493</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01774609305764661</v>
+        <v>0.06378418618026657</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.75</v>
       </c>
       <c r="C15" t="n">
-        <v>30.20442464496487</v>
+        <v>30.48656272888184</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5455753550351297</v>
+        <v>-0.2634372711181641</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2976524680217078</v>
+        <v>0.06939919581418508</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.94</v>
       </c>
       <c r="C16" t="n">
-        <v>30.62186542018789</v>
+        <v>30.66298484802246</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.31813457981211</v>
+        <v>-0.2770151519775368</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1012096108722278</v>
+        <v>0.0767373944251378</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.95</v>
       </c>
       <c r="C17" t="n">
-        <v>30.86473493105069</v>
+        <v>30.77135276794434</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.08526506894930819</v>
+        <v>-0.1786472320556669</v>
       </c>
       <c r="E17" t="n">
-        <v>0.007270131982930279</v>
+        <v>0.0319148335211513</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.02</v>
       </c>
       <c r="C18" t="n">
-        <v>31.44454446523798</v>
+        <v>31.13797569274902</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4245444652379824</v>
+        <v>0.1179756927490274</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1802380029642044</v>
+        <v>0.01391826407961292</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.12</v>
       </c>
       <c r="C19" t="n">
-        <v>31.78832209817197</v>
+        <v>31.23985862731934</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6683220981719664</v>
+        <v>0.1198586273193314</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4466544269049795</v>
+        <v>0.01436609054287437</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.28</v>
       </c>
       <c r="C20" t="n">
-        <v>31.88941772239685</v>
+        <v>31.34793663024902</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6094177223968487</v>
+        <v>0.0679366302490223</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3713899603713625</v>
+        <v>0.004615385729592372</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.38</v>
       </c>
       <c r="C21" t="n">
-        <v>31.64352926705801</v>
+        <v>31.21634483337402</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2635292670580078</v>
+        <v>-0.163655166625972</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06944767459613081</v>
+        <v>0.02678301356337466</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.58</v>
       </c>
       <c r="C22" t="n">
-        <v>32.00931304406744</v>
+        <v>31.37014579772949</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4293130440674418</v>
+        <v>-0.2098542022705061</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1843096898064532</v>
+        <v>0.04403878621059049</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>31.65</v>
+        <v>31.65000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>31.91376816802393</v>
+        <v>31.93939781188965</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2637681680239297</v>
+        <v>0.2893978118896428</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06957364646269999</v>
+        <v>0.08375109352651305</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.88</v>
       </c>
       <c r="C24" t="n">
-        <v>32.52880642879173</v>
+        <v>32.42129135131836</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6488064287917332</v>
+        <v>0.5412913513183639</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4209497820414824</v>
+        <v>0.2929963270120605</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.28</v>
       </c>
       <c r="C25" t="n">
-        <v>32.30056186036718</v>
+        <v>32.3786506652832</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02056186036718088</v>
+        <v>0.09865066528320199</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000422790101759444</v>
+        <v>0.009731953760818354</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.45</v>
       </c>
       <c r="C26" t="n">
-        <v>32.41812911570014</v>
+        <v>32.47011184692383</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.03187088429986318</v>
+        <v>0.02011184692382528</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001015753266055265</v>
+        <v>0.0004044863866873805</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>32.85</v>
+        <v>32.84999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>32.68084162751008</v>
+        <v>32.71941757202148</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1691583724899246</v>
+        <v>-0.1305824279785099</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02861455498344008</v>
+        <v>0.01705177049676274</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>23</v>
       </c>
       <c r="B28" t="n">
-        <v>32.9</v>
+        <v>32.90000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>32.83312738104019</v>
+        <v>32.95898818969727</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.06687261895981322</v>
+        <v>0.05898818969725994</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004471947166544371</v>
+        <v>0.003479606523759924</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>22</v>
       </c>
       <c r="B29" t="n">
-        <v>33.1</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>32.90029903122721</v>
+        <v>32.89831924438477</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1997009687727882</v>
+        <v>-0.2016807556152287</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03988047692879013</v>
+        <v>0.0406751271855296</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>21</v>
       </c>
       <c r="B30" t="n">
-        <v>33.4</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>33.80975482240257</v>
+        <v>33.6444206237793</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4097548224025687</v>
+        <v>0.2444206237792912</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1678990144821606</v>
+        <v>0.05974144132865781</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.7</v>
       </c>
       <c r="C31" t="n">
-        <v>33.74002028657529</v>
+        <v>33.67840194702148</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04002028657528456</v>
+        <v>-0.02159805297851847</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001601623337567902</v>
+        <v>0.0004664758924628904</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>19</v>
       </c>
       <c r="B32" t="n">
-        <v>34.1</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>33.88943368249295</v>
+        <v>33.89046096801758</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2105663175070518</v>
+        <v>-0.2095390319824162</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04433817406848055</v>
+        <v>0.04390660592412803</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>18</v>
       </c>
       <c r="B33" t="n">
-        <v>34.4</v>
+        <v>34.40000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>34.09448789097654</v>
+        <v>34.41019821166992</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3055121090234607</v>
+        <v>0.01019821166991619</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09333764875996295</v>
+        <v>0.0001040035212644148</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>17</v>
       </c>
       <c r="B34" t="n">
-        <v>34.9</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>34.69025297020666</v>
+        <v>35.07607650756836</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2097470297933413</v>
+        <v>0.1760765075683537</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04399381650712878</v>
+        <v>0.03100293651746851</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.3</v>
       </c>
       <c r="C35" t="n">
-        <v>35.80560405672431</v>
+        <v>35.64742660522461</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5056040567243087</v>
+        <v>0.3474266052246122</v>
       </c>
       <c r="E35" t="n">
-        <v>0.255635462176078</v>
+        <v>0.1207052460178985</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.7</v>
       </c>
       <c r="C36" t="n">
-        <v>36.21814574213933</v>
+        <v>35.9569206237793</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5181457421393318</v>
+        <v>0.256920623779294</v>
       </c>
       <c r="E36" t="n">
-        <v>0.268475010097119</v>
+        <v>0.06600820692314155</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.3</v>
       </c>
       <c r="C37" t="n">
-        <v>36.4205231866155</v>
+        <v>35.85188674926758</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1205231866155074</v>
+        <v>-0.448113250732419</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01452583851195643</v>
+        <v>0.2008054854819759</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.8</v>
       </c>
       <c r="C38" t="n">
-        <v>37.0028044816777</v>
+        <v>36.47769546508789</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2028044816777026</v>
+        <v>-0.3223045349121065</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04112965778856161</v>
+        <v>0.1038802132249093</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.3</v>
       </c>
       <c r="C39" t="n">
-        <v>37.05302007412836</v>
+        <v>37.24319839477539</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.246979925871635</v>
+        <v>-0.05680160522460653</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0609990837835583</v>
+        <v>0.003226422356092048</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>37.9</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>37.9774682746986</v>
+        <v>38.02762222290039</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07746827469860307</v>
+        <v>0.1276222229003849</v>
       </c>
       <c r="E40" t="n">
-        <v>0.006001333584778224</v>
+        <v>0.01628743177803554</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.5</v>
       </c>
       <c r="C41" t="n">
-        <v>38.60024867395411</v>
+        <v>38.46606826782227</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1002486739541126</v>
+        <v>-0.03393173217773438</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01004979662955798</v>
+        <v>0.001151362448581494</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>9</v>
       </c>
       <c r="B42" t="n">
-        <v>38.9</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>38.99013988363992</v>
+        <v>39.12563705444336</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09013988363992098</v>
+        <v>0.2256370544433537</v>
       </c>
       <c r="E42" t="n">
-        <v>0.008125198622618493</v>
+        <v>0.05091208033787296</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>39.4</v>
+        <v>39.40000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>39.40336668991242</v>
+        <v>39.65830612182617</v>
       </c>
       <c r="D43" t="n">
-        <v>0.003366689912418508</v>
+        <v>0.2583061218261662</v>
       </c>
       <c r="E43" t="n">
-        <v>1.133460096638054e-05</v>
+        <v>0.06672205257287421</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>39.9</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>39.68787633533997</v>
+        <v>39.70235824584961</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2121236646600266</v>
+        <v>-0.1976417541503963</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04499644910879944</v>
+        <v>0.0390622629836457</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="n">
-        <v>40.1</v>
+        <v>40.09999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>39.81928179558339</v>
+        <v>39.89709854125977</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2807182044166083</v>
+        <v>-0.2029014587402287</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0788027102908847</v>
+        <v>0.04116900195891272</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>40.6</v>
+        <v>40.59999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>39.98454363845202</v>
+        <v>40.38924026489258</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.6154563615479773</v>
+        <v>-0.2107597351074162</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3787865329698746</v>
+        <v>0.04441966594254824</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>40.9</v>
+        <v>40.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>40.2827639170674</v>
+        <v>40.60507583618164</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.6172360829325996</v>
+        <v>-0.2949241638183651</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3809803820739789</v>
+        <v>0.08698026240396182</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>3</v>
       </c>
       <c r="B48" t="n">
-        <v>41.2</v>
+        <v>41.20000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>41.1643286542588</v>
+        <v>41.06470108032227</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.03567134574120701</v>
+        <v>-0.1352989196777443</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001272444906988727</v>
+        <v>0.01830579766596471</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.5</v>
       </c>
       <c r="C49" t="n">
-        <v>41.38280972179857</v>
+        <v>41.33103561401367</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1171902782014342</v>
+        <v>-0.1689643859863281</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01373356130492955</v>
+        <v>0.02854896373173688</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.8</v>
       </c>
       <c r="C50" t="n">
-        <v>41.97263752137447</v>
+        <v>42.09722518920898</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172637521374476</v>
+        <v>0.2972251892089872</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02980371378632264</v>
+        <v>0.08834281310031825</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.2</v>
       </c>
       <c r="C51" t="n">
-        <v>42.53203313404133</v>
+        <v>42.46757125854492</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3320331340413247</v>
+        <v>0.267571258544919</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1102460021013043</v>
+        <v>0.0715943783993119</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.8689946148521841</v>
+        <v>0.006692657470672714</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>6.560556004411927</v>
+        <v>2.06433120004918</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1312111200882385</v>
+        <v>0.04128662400098359</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_6.xlsx
+++ b/partial/sliding_window_results_window_6.xlsx
@@ -468,13 +468,13 @@
         <v>29.55</v>
       </c>
       <c r="C2" t="n">
-        <v>29.46595573425293</v>
+        <v>29.48318290710449</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.08404426574706747</v>
+        <v>-0.06681709289550497</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007063438604963698</v>
+        <v>0.004464523903006541</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.75</v>
       </c>
       <c r="C3" t="n">
-        <v>29.70925712585449</v>
+        <v>29.70501518249512</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04074287414550781</v>
+        <v>-0.04498481750488281</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001659981793636689</v>
+        <v>0.002023633805947611</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.84</v>
       </c>
       <c r="C4" t="n">
-        <v>29.85741233825684</v>
+        <v>29.86373710632324</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01741233825683253</v>
+        <v>0.02373710632323878</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003031895235703536</v>
+        <v>0.0005634502166007423</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.81</v>
       </c>
       <c r="C5" t="n">
-        <v>29.88316917419434</v>
+        <v>29.88886070251465</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07316917419433366</v>
+        <v>0.07886070251464616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005353728052280743</v>
+        <v>0.00621901040110352</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.92</v>
       </c>
       <c r="C6" t="n">
-        <v>29.93117332458496</v>
+        <v>29.93073081970215</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01117332458495923</v>
+        <v>0.01073081970214673</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001248431822808544</v>
+        <v>0.0001151504914799805</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.98</v>
       </c>
       <c r="C7" t="n">
-        <v>30.08595848083496</v>
+        <v>30.06776237487793</v>
       </c>
       <c r="D7" t="n">
-        <v>0.105958480834957</v>
+        <v>0.08776237487792571</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01122719966085194</v>
+        <v>0.007702234444213566</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.03999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>30.22243309020996</v>
+        <v>30.20768547058105</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1824330902099689</v>
+        <v>0.1676854705810626</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03328183240355865</v>
+        <v>0.02811841704399243</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.21000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>30.27715873718262</v>
+        <v>30.26210594177246</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06715873718260923</v>
+        <v>0.05210594177245298</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004510295979962779</v>
+        <v>0.00271502916799426</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.22</v>
       </c>
       <c r="C10" t="n">
-        <v>30.35295677185059</v>
+        <v>30.34291648864746</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1329567718505871</v>
+        <v>0.1229164886474621</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01767750318092906</v>
+        <v>0.01510846318142167</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.38</v>
       </c>
       <c r="C11" t="n">
-        <v>30.36369132995605</v>
+        <v>30.36043357849121</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01630867004394077</v>
+        <v>-0.01956642150878452</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002659727186021309</v>
+        <v>0.0003828448506594253</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.44</v>
       </c>
       <c r="C12" t="n">
-        <v>30.49990653991699</v>
+        <v>30.49566459655762</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05990653991699446</v>
+        <v>0.05566459655761946</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003588793524826451</v>
+        <v>0.00309854730992254</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.48</v>
       </c>
       <c r="C13" t="n">
-        <v>30.43221092224121</v>
+        <v>30.42721366882324</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04778907775879304</v>
+        <v>-0.05278633117676179</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002283795953035968</v>
+        <v>0.002786396759102774</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.69</v>
       </c>
       <c r="C14" t="n">
-        <v>30.43744468688965</v>
+        <v>30.43733024597168</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2525553131103493</v>
+        <v>-0.252669754028318</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06378418618026657</v>
+        <v>0.06384200460073074</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.75</v>
       </c>
       <c r="C15" t="n">
-        <v>30.48656272888184</v>
+        <v>30.4925594329834</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2634372711181641</v>
+        <v>-0.2574405670166016</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06939919581418508</v>
+        <v>0.06627564554582932</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.94</v>
       </c>
       <c r="C16" t="n">
-        <v>30.66298484802246</v>
+        <v>30.66326713562012</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2770151519775368</v>
+        <v>-0.2767328643798805</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0767373944251378</v>
+        <v>0.07658107822789335</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.95</v>
       </c>
       <c r="C17" t="n">
-        <v>30.77135276794434</v>
+        <v>30.77322959899902</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1786472320556669</v>
+        <v>-0.1767704010009794</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0319148335211513</v>
+        <v>0.03124777467004706</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.02</v>
       </c>
       <c r="C18" t="n">
-        <v>31.13797569274902</v>
+        <v>31.13629722595215</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1179756927490274</v>
+        <v>0.1162972259521524</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01391826407961292</v>
+        <v>0.01352504476416599</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.12</v>
       </c>
       <c r="C19" t="n">
-        <v>31.23985862731934</v>
+        <v>31.24133110046387</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1198586273193314</v>
+        <v>0.1213311004638626</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01436609054287437</v>
+        <v>0.01472123593977193</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.28</v>
       </c>
       <c r="C20" t="n">
-        <v>31.34793663024902</v>
+        <v>31.34639549255371</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0679366302490223</v>
+        <v>0.0663954925537098</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004615385729592372</v>
+        <v>0.004408361431449734</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.38</v>
       </c>
       <c r="C21" t="n">
-        <v>31.21634483337402</v>
+        <v>31.21949577331543</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.163655166625972</v>
+        <v>-0.1605042266845658</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02678301356337466</v>
+        <v>0.02576160678361047</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.58</v>
       </c>
       <c r="C22" t="n">
-        <v>31.37014579772949</v>
+        <v>31.37631797790527</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2098542022705061</v>
+        <v>-0.2036820220947249</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04403878621059049</v>
+        <v>0.04148636612459598</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.65000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>31.93939781188965</v>
+        <v>31.92587089538574</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2893978118896428</v>
+        <v>0.2758708953857365</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08375109352651305</v>
+        <v>0.07610475092092797</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.88</v>
       </c>
       <c r="C24" t="n">
-        <v>32.42129135131836</v>
+        <v>32.40918350219727</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5412913513183639</v>
+        <v>0.5291835021972702</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2929963270120605</v>
+        <v>0.2800351789977683</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.28</v>
       </c>
       <c r="C25" t="n">
-        <v>32.3786506652832</v>
+        <v>32.36085891723633</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09865066528320199</v>
+        <v>0.08085891723632699</v>
       </c>
       <c r="E25" t="n">
-        <v>0.009731953760818354</v>
+        <v>0.006538164496631178</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.45</v>
       </c>
       <c r="C26" t="n">
-        <v>32.47011184692383</v>
+        <v>32.45181655883789</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02011184692382528</v>
+        <v>0.001816558837887783</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0004044863866873805</v>
+        <v>3.299886011508212e-06</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.84999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>32.71941757202148</v>
+        <v>32.70612716674805</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1305824279785099</v>
+        <v>-0.1438728332519474</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01705177049676274</v>
+        <v>0.02069939214794267</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.90000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>32.95898818969727</v>
+        <v>32.9383659362793</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05898818969725994</v>
+        <v>0.03836593627929119</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003479606523759924</v>
+        <v>0.001471945066586632</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.09999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>32.89831924438477</v>
+        <v>32.89734268188477</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2016807556152287</v>
+        <v>-0.2026573181152287</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0406751271855296</v>
+        <v>0.041069988585657</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.40000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>33.6444206237793</v>
+        <v>33.65109634399414</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2444206237792912</v>
+        <v>0.2510963439941349</v>
       </c>
       <c r="E30" t="n">
-        <v>0.05974144132865781</v>
+        <v>0.06304937396722095</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.7</v>
       </c>
       <c r="C31" t="n">
-        <v>33.67840194702148</v>
+        <v>33.68859481811523</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.02159805297851847</v>
+        <v>-0.01140518188476847</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0004664758924628904</v>
+        <v>0.0001300781738246508</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.09999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>33.89046096801758</v>
+        <v>33.89278793334961</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2095390319824162</v>
+        <v>-0.2072120666503849</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04390660592412803</v>
+        <v>0.04293684056552357</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.40000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>34.41019821166992</v>
+        <v>34.42402267456055</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01019821166991619</v>
+        <v>0.02402267456054119</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0001040035212644148</v>
+        <v>0.0005770888930416729</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>35.07607650756836</v>
+        <v>35.07317733764648</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1760765075683537</v>
+        <v>0.1731773376464787</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03100293651746851</v>
+        <v>0.02999039027432249</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.3</v>
       </c>
       <c r="C35" t="n">
-        <v>35.64742660522461</v>
+        <v>35.66910934448242</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3474266052246122</v>
+        <v>0.3691093444824247</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1207052460178985</v>
+        <v>0.1362417081842453</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.7</v>
       </c>
       <c r="C36" t="n">
-        <v>35.9569206237793</v>
+        <v>35.97469711303711</v>
       </c>
       <c r="D36" t="n">
-        <v>0.256920623779294</v>
+        <v>0.2746971130371065</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06600820692314155</v>
+        <v>0.07545850391092089</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.3</v>
       </c>
       <c r="C37" t="n">
-        <v>35.85188674926758</v>
+        <v>35.85384750366211</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.448113250732419</v>
+        <v>-0.4461524963378878</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2008054854819759</v>
+        <v>0.199052049988529</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.8</v>
       </c>
       <c r="C38" t="n">
-        <v>36.47769546508789</v>
+        <v>36.48120498657227</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.3223045349121065</v>
+        <v>-0.3187950134277315</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1038802132249093</v>
+        <v>0.1016302605863875</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.3</v>
       </c>
       <c r="C39" t="n">
-        <v>37.24319839477539</v>
+        <v>37.23727035522461</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.05680160522460653</v>
+        <v>-0.06272964477538778</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003226422356092048</v>
+        <v>0.003935008333646336</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>38.02762222290039</v>
+        <v>38.0443229675293</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1276222229003849</v>
+        <v>0.1443229675292912</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01628743177803554</v>
+        <v>0.02082911895646084</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.5</v>
       </c>
       <c r="C41" t="n">
-        <v>38.46606826782227</v>
+        <v>38.49626541137695</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.03393173217773438</v>
+        <v>-0.003734588623046875</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001151362448581494</v>
+        <v>1.394715218339115e-05</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>39.12563705444336</v>
+        <v>39.13547897338867</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2256370544433537</v>
+        <v>0.2354789733886662</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05091208033787296</v>
+        <v>0.05545034690818016</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>39.40000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>39.65830612182617</v>
+        <v>39.65728378295898</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2583061218261662</v>
+        <v>0.2572837829589787</v>
       </c>
       <c r="E43" t="n">
-        <v>0.06672205257287421</v>
+        <v>0.06619494497368285</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>39.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>39.70235824584961</v>
+        <v>39.72004318237305</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1976417541503963</v>
+        <v>-0.1799568176269588</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0390622629836457</v>
+        <v>0.03238445621042251</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.09999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>39.89709854125977</v>
+        <v>39.87617111206055</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2029014587402287</v>
+        <v>-0.2238288879394474</v>
       </c>
       <c r="E45" t="n">
-        <v>0.04116900195891272</v>
+        <v>0.05009937107620972</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.59999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>40.38924026489258</v>
+        <v>40.35493850708008</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2107597351074162</v>
+        <v>-0.2450614929199162</v>
       </c>
       <c r="E46" t="n">
-        <v>0.04441966594254824</v>
+        <v>0.06005513531213813</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>40.60507583618164</v>
+        <v>40.5772819519043</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2949241638183651</v>
+        <v>-0.3227180480957088</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08698026240396182</v>
+        <v>0.1041469385667042</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.20000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>41.06470108032227</v>
+        <v>41.07165908813477</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1352989196777443</v>
+        <v>-0.1283409118652443</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01830579766596471</v>
+        <v>0.01647138965840241</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.5</v>
       </c>
       <c r="C49" t="n">
-        <v>41.33103561401367</v>
+        <v>41.34361267089844</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1689643859863281</v>
+        <v>-0.1563873291015625</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02854896373173688</v>
+        <v>0.02445699670352042</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.8</v>
       </c>
       <c r="C50" t="n">
-        <v>42.09722518920898</v>
+        <v>42.13849258422852</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2972251892089872</v>
+        <v>0.3384925842285185</v>
       </c>
       <c r="E50" t="n">
-        <v>0.08834281310031825</v>
+        <v>0.1145772295777007</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.2</v>
       </c>
       <c r="C51" t="n">
-        <v>42.46757125854492</v>
+        <v>42.4624137878418</v>
       </c>
       <c r="D51" t="n">
-        <v>0.267571258544919</v>
+        <v>0.262413787841794</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0715943783993119</v>
+        <v>0.0688609960494781</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.006692657470672714</v>
+        <v>-0.005129089355499161</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>2.06433120004918</v>
+        <v>2.103611713787811</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.04128662400098359</v>
+        <v>0.04207223427575621</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_6.xlsx
+++ b/partial/sliding_window_results_window_6.xlsx
@@ -468,13 +468,13 @@
         <v>29.55</v>
       </c>
       <c r="C2" t="n">
-        <v>29.84591448890856</v>
+        <v>29.34289985487003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2959144889085614</v>
+        <v>-0.2071001451299708</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08756538474601512</v>
+        <v>0.04289047011285495</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.75</v>
       </c>
       <c r="C3" t="n">
-        <v>29.63832611849096</v>
+        <v>29.73399442021041</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1116738815090415</v>
+        <v>-0.01600557978958861</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01247105581129543</v>
+        <v>0.0002561785844008874</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.84</v>
       </c>
       <c r="C4" t="n">
-        <v>30.53792944522699</v>
+        <v>30.30976685091175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6979294452269933</v>
+        <v>0.4697668509117463</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4871055105148586</v>
+        <v>0.2206808942155389</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.81</v>
       </c>
       <c r="C5" t="n">
-        <v>30.40112432916776</v>
+        <v>30.18441060497628</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5911243291677657</v>
+        <v>0.3744106049762763</v>
       </c>
       <c r="E5" t="n">
-        <v>0.349427972534041</v>
+        <v>0.1401833011187012</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.92</v>
       </c>
       <c r="C6" t="n">
-        <v>30.22519927145229</v>
+        <v>29.91739787915503</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3051992714522846</v>
+        <v>-0.002602120844972688</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09314659529500532</v>
+        <v>6.771032891841378e-06</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.98</v>
       </c>
       <c r="C7" t="n">
-        <v>29.60926616618648</v>
+        <v>29.86322763495295</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3707338338135209</v>
+        <v>-0.1167723650470549</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1374435755340713</v>
+        <v>0.01363578523868265</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.04</v>
       </c>
       <c r="C8" t="n">
-        <v>29.89359573285066</v>
+        <v>29.87031407170072</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.146404267149336</v>
+        <v>-0.1696859282992769</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02143420943953413</v>
+        <v>0.02879331426278733</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.21</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4881873502974</v>
+        <v>29.98186659486311</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7218126497026027</v>
+        <v>-0.2281334051368944</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5210135012706922</v>
+        <v>0.05204485053935439</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.22</v>
       </c>
       <c r="C10" t="n">
-        <v>29.87883321989423</v>
+        <v>30.13287623834016</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3411667801057661</v>
+        <v>-0.08712376165983926</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1163947718477361</v>
+        <v>0.007590549845760478</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.38</v>
       </c>
       <c r="C11" t="n">
-        <v>29.73555844411813</v>
+        <v>30.19635820737606</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6444415558818726</v>
+        <v>-0.1836417926239413</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4153049189474487</v>
+        <v>0.03372430799813467</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.44</v>
       </c>
       <c r="C12" t="n">
-        <v>30.40475970552956</v>
+        <v>30.49092004476196</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03524029447044441</v>
+        <v>0.05092004476195555</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001241878354363635</v>
+        <v>0.002592850958559557</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.48</v>
       </c>
       <c r="C13" t="n">
-        <v>30.33028416551723</v>
+        <v>30.41667902625066</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1497158344827696</v>
+        <v>-0.06332097374933809</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02241483109487206</v>
+        <v>0.004009545716564364</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.69</v>
       </c>
       <c r="C14" t="n">
-        <v>30.55678553735556</v>
+        <v>30.41725733225557</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1332144626444389</v>
+        <v>-0.2727426677444349</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01774609305764661</v>
+        <v>0.07438856280835121</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.75</v>
       </c>
       <c r="C15" t="n">
-        <v>30.20442464496487</v>
+        <v>30.75600763974486</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5455753550351297</v>
+        <v>0.006007639744858295</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2976524680217078</v>
+        <v>3.609173530400104e-05</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.94</v>
       </c>
       <c r="C16" t="n">
-        <v>30.62186542018789</v>
+        <v>30.8328102252049</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.31813457981211</v>
+        <v>-0.1071897747950992</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1012096108722278</v>
+        <v>0.01148964782062408</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.95</v>
       </c>
       <c r="C17" t="n">
-        <v>30.86473493105069</v>
+        <v>30.92742909302136</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.08526506894930819</v>
+        <v>-0.02257090697863973</v>
       </c>
       <c r="E17" t="n">
-        <v>0.007270131982930279</v>
+        <v>0.0005094458418384075</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.02</v>
       </c>
       <c r="C18" t="n">
-        <v>31.44454446523798</v>
+        <v>31.13534542000329</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4245444652379824</v>
+        <v>0.115345420003294</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1802380029642044</v>
+        <v>0.01330456591573628</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.12</v>
       </c>
       <c r="C19" t="n">
-        <v>31.78832209817197</v>
+        <v>31.24816772355857</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6683220981719664</v>
+        <v>0.1281677235585654</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4466544269049795</v>
+        <v>0.01642696536218485</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.28</v>
       </c>
       <c r="C20" t="n">
-        <v>31.88941772239685</v>
+        <v>31.1295982748876</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6094177223968487</v>
+        <v>-0.1504017251124026</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3713899603713625</v>
+        <v>0.02262067891678671</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.38</v>
       </c>
       <c r="C21" t="n">
-        <v>31.64352926705801</v>
+        <v>30.98313353305045</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2635292670580078</v>
+        <v>-0.3968664669495467</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06944767459613081</v>
+        <v>0.1575029925890157</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.58</v>
       </c>
       <c r="C22" t="n">
-        <v>32.00931304406744</v>
+        <v>31.2016208500709</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4293130440674418</v>
+        <v>-0.3783791499290956</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1843096898064532</v>
+        <v>0.143170781101065</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.65</v>
       </c>
       <c r="C23" t="n">
-        <v>31.91376816802393</v>
+        <v>31.66159758224181</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2637681680239297</v>
+        <v>0.01159758224181573</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06957364646269999</v>
+        <v>0.0001345039138556796</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.88</v>
       </c>
       <c r="C24" t="n">
-        <v>32.52880642879173</v>
+        <v>32.49035952587511</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6488064287917332</v>
+        <v>0.6103595258751078</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4209497820414824</v>
+        <v>0.3725387508264864</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.28</v>
       </c>
       <c r="C25" t="n">
-        <v>32.30056186036718</v>
+        <v>32.47948710295107</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02056186036718088</v>
+        <v>0.1994871029510676</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000422790101759444</v>
+        <v>0.03979510424380986</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.45</v>
       </c>
       <c r="C26" t="n">
-        <v>32.41812911570014</v>
+        <v>32.84956581219205</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.03187088429986318</v>
+        <v>0.3995658121920442</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001015753266055265</v>
+        <v>0.159652838272688</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.85</v>
       </c>
       <c r="C27" t="n">
-        <v>32.68084162751008</v>
+        <v>33.13122302259087</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1691583724899246</v>
+        <v>0.2812230225908721</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02861455498344008</v>
+        <v>0.07908638843514613</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.9</v>
       </c>
       <c r="C28" t="n">
-        <v>32.83312738104019</v>
+        <v>33.19406796210896</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.06687261895981322</v>
+        <v>0.2940679621089615</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004471947166544371</v>
+        <v>0.0864759663389176</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.1</v>
       </c>
       <c r="C29" t="n">
-        <v>32.90029903122721</v>
+        <v>33.31829812935527</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1997009687727882</v>
+        <v>0.2182981293552686</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03988047692879013</v>
+        <v>0.04765407328000958</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.4</v>
       </c>
       <c r="C30" t="n">
-        <v>33.80975482240257</v>
+        <v>33.71936165410794</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4097548224025687</v>
+        <v>0.3193616541079436</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1678990144821606</v>
+        <v>0.1019918661145618</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.7</v>
       </c>
       <c r="C31" t="n">
-        <v>33.74002028657529</v>
+        <v>33.72889839495205</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04002028657528456</v>
+        <v>0.02889839495205138</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001601623337567902</v>
+        <v>0.0008351172308047485</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.1</v>
       </c>
       <c r="C32" t="n">
-        <v>33.88943368249295</v>
+        <v>33.79738590116477</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2105663175070518</v>
+        <v>-0.3026140988352282</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04433817406848055</v>
+        <v>0.09157529281385723</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.4</v>
       </c>
       <c r="C33" t="n">
-        <v>34.09448789097654</v>
+        <v>34.20263769160752</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3055121090234607</v>
+        <v>-0.1973623083924778</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09333764875996295</v>
+        <v>0.03895188077400752</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.9</v>
       </c>
       <c r="C34" t="n">
-        <v>34.69025297020666</v>
+        <v>34.45974062913849</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2097470297933413</v>
+        <v>-0.4402593708615115</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04399381650712878</v>
+        <v>0.1938283136313739</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.3</v>
       </c>
       <c r="C35" t="n">
-        <v>35.80560405672431</v>
+        <v>35.62825551613716</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5056040567243087</v>
+        <v>0.3282555161371619</v>
       </c>
       <c r="E35" t="n">
-        <v>0.255635462176078</v>
+        <v>0.1077516838744745</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.7</v>
       </c>
       <c r="C36" t="n">
-        <v>36.21814574213933</v>
+        <v>35.89664932593882</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5181457421393318</v>
+        <v>0.1966493259388145</v>
       </c>
       <c r="E36" t="n">
-        <v>0.268475010097119</v>
+        <v>0.03867095739219008</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.3</v>
       </c>
       <c r="C37" t="n">
-        <v>36.4205231866155</v>
+        <v>36.17513560476671</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1205231866155074</v>
+        <v>-0.1248643952332884</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01452583851195643</v>
+        <v>0.01559111719697486</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.8</v>
       </c>
       <c r="C38" t="n">
-        <v>37.0028044816777</v>
+        <v>36.79703670043323</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2028044816777026</v>
+        <v>-0.002963299566765443</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04112965778856161</v>
+        <v>8.781144322392261e-06</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.3</v>
       </c>
       <c r="C39" t="n">
-        <v>37.05302007412836</v>
+        <v>36.88889165364485</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.246979925871635</v>
+        <v>-0.4111083463551495</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0609990837835583</v>
+        <v>0.1690100724428655</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.9</v>
       </c>
       <c r="C40" t="n">
-        <v>37.9774682746986</v>
+        <v>37.99193202877537</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07746827469860307</v>
+        <v>0.09193202877536777</v>
       </c>
       <c r="E40" t="n">
-        <v>0.006001333584778224</v>
+        <v>0.008451497914755048</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.5</v>
       </c>
       <c r="C41" t="n">
-        <v>38.60024867395411</v>
+        <v>38.69646754624609</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1002486739541126</v>
+        <v>0.1964675462460903</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01004979662955798</v>
+        <v>0.03859949672795963</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.9</v>
       </c>
       <c r="C42" t="n">
-        <v>38.99013988363992</v>
+        <v>39.00851112573505</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09013988363992098</v>
+        <v>0.1085111257350562</v>
       </c>
       <c r="E42" t="n">
-        <v>0.008125198622618493</v>
+        <v>0.01177466440828917</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>39.4</v>
       </c>
       <c r="C43" t="n">
-        <v>39.40336668991242</v>
+        <v>39.37586542242229</v>
       </c>
       <c r="D43" t="n">
-        <v>0.003366689912418508</v>
+        <v>-0.02413457757771198</v>
       </c>
       <c r="E43" t="n">
-        <v>1.133460096638054e-05</v>
+        <v>0.0005824778348545979</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>39.9</v>
       </c>
       <c r="C44" t="n">
-        <v>39.68787633533997</v>
+        <v>39.6478100977316</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2121236646600266</v>
+        <v>-0.2521899022683982</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04499644910879944</v>
+        <v>0.06359974680614425</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.1</v>
       </c>
       <c r="C45" t="n">
-        <v>39.81928179558339</v>
+        <v>39.85032822565149</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2807182044166083</v>
+        <v>-0.2496717743485135</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0788027102908847</v>
+        <v>0.06233599490633505</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.6</v>
       </c>
       <c r="C46" t="n">
-        <v>39.98454363845202</v>
+        <v>40.03887235974106</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.6154563615479773</v>
+        <v>-0.5611276402589382</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3787865329698746</v>
+        <v>0.3148642286625644</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.9</v>
       </c>
       <c r="C47" t="n">
-        <v>40.2827639170674</v>
+        <v>40.34758395275934</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.6172360829325996</v>
+        <v>-0.552416047240655</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3809803820739789</v>
+        <v>0.3051634892489896</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.2</v>
       </c>
       <c r="C48" t="n">
-        <v>41.1643286542588</v>
+        <v>41.43800678165266</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.03567134574120701</v>
+        <v>0.2380067816526577</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001272444906988727</v>
+        <v>0.05664722811265586</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.5</v>
       </c>
       <c r="C49" t="n">
-        <v>41.38280972179857</v>
+        <v>41.53548273587013</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1171902782014342</v>
+        <v>0.03548273587012574</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01373356130492955</v>
+        <v>0.001259024544829108</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.8</v>
       </c>
       <c r="C50" t="n">
-        <v>41.97263752137447</v>
+        <v>41.95881490504632</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172637521374476</v>
+        <v>0.1588149050463272</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02980371378632264</v>
+        <v>0.02522217406487393</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.2</v>
       </c>
       <c r="C51" t="n">
-        <v>42.53203313404133</v>
+        <v>42.78848311819058</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3320331340413247</v>
+        <v>0.5884831181905739</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1102460021013043</v>
+        <v>0.3463123803953009</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.8689946148521841</v>
+        <v>-0.07116797080472992</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>6.560556004411927</v>
+        <v>3.764223663269034</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1312111200882385</v>
+        <v>0.07528447326538068</v>
       </c>
     </row>
   </sheetData>
